--- a/views/src/assets/files/sample.xlsx
+++ b/views/src/assets/files/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai.maryala/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai.maryala/Desktop/dhs/ISQ-DHS/views/src/assets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD97898-B3B0-3040-9FFE-D21850E7FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A652A73-A89F-A042-A990-C8F6EA5D2C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{51E49709-1346-DE49-AFEF-A2779A83375D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Escalation procedure for incidents or problems provided?</t>
   </si>
@@ -55,27 +55,12 @@
   <si>
     <t>Gemini</t>
   </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>DataSteward</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>stieve</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,14 +101,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -159,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,16 +147,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,98 +466,79 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="C1:C1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="255.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
-        <v>45393</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
-        <v>45379</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.3">
